--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,187 +58,181 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>cooke</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>good</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -602,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -721,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3255813953488372</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2323232323232323</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.846749226006192</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.145945945945946</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8529411764705882</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L6">
-        <v>551</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>551</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +865,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +891,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +917,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L9">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="M9">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +943,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7402597402597403</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,13 +969,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -993,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1001,13 +995,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7045454545454546</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1019,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1027,13 +1021,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6915254237288135</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L13">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1045,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1053,13 +1047,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6714285714285714</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1071,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1079,13 +1073,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6712328767123288</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1097,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1105,13 +1099,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6388443017656501</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L16">
-        <v>796</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>796</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1123,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>450</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1131,13 +1125,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6285714285714286</v>
+        <v>0.6316211878009631</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>787</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>787</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1149,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>65</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1157,13 +1151,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.5972222222222222</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1175,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1183,13 +1177,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5774647887323944</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1201,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1212,10 +1206,10 @@
         <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1227,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1235,13 +1229,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5573770491803278</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1253,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1261,13 +1255,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5441176470588235</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1287,13 +1281,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.543859649122807</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1305,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1313,13 +1307,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5329341317365269</v>
+        <v>0.546875</v>
       </c>
       <c r="L24">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1331,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1339,13 +1333,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5037593984962406</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="L25">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="M25">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1357,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1365,13 +1359,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4923076923076923</v>
+        <v>0.51</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1383,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1391,13 +1385,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4819277108433735</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1409,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1417,13 +1411,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4791666666666667</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1435,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1443,13 +1437,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.463855421686747</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L29">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="M29">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1461,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1469,13 +1463,13 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.4615384615384616</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1487,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1495,13 +1489,13 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4519230769230769</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1513,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1521,13 +1515,13 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.42</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1539,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1547,13 +1541,13 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.3968253968253968</v>
+        <v>0.3696498054474708</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1565,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1573,13 +1567,13 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.3834586466165413</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L34">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1591,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1599,13 +1593,13 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.3552631578947368</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1617,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1625,13 +1619,13 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.3538461538461539</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1643,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1651,13 +1645,13 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>0.3385214007782101</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L37">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1669,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>170</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1677,13 +1671,13 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3382352941176471</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L38">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1695,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>270</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1703,13 +1697,13 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>0.2890410958904109</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L39">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="M39">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1721,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>519</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1729,25 +1723,25 @@
         <v>50</v>
       </c>
       <c r="K40">
-        <v>0.277511961722488</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>58</v>
-      </c>
-      <c r="M40">
-        <v>58</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>151</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1755,13 +1749,13 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>0.2772277227722773</v>
+        <v>0.2767123287671233</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1773,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>73</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1781,13 +1775,13 @@
         <v>52</v>
       </c>
       <c r="K42">
-        <v>0.2733812949640288</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1799,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1807,13 +1801,13 @@
         <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2716049382716049</v>
+        <v>0.2583423035522067</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1825,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>59</v>
+        <v>689</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1833,13 +1827,13 @@
         <v>54</v>
       </c>
       <c r="K44">
-        <v>0.2612612612612613</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1851,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1859,13 +1853,13 @@
         <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2508073196986007</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L45">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="M45">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1877,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>696</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1885,13 +1879,13 @@
         <v>56</v>
       </c>
       <c r="K46">
-        <v>0.225705329153605</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L46">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1903,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>247</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1911,13 +1905,13 @@
         <v>57</v>
       </c>
       <c r="K47">
-        <v>0.2013422818791946</v>
+        <v>0.2</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1929,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>119</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1937,13 +1931,13 @@
         <v>58</v>
       </c>
       <c r="K48">
-        <v>0.1986754966887417</v>
+        <v>0.1930946291560102</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1955,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>121</v>
+        <v>631</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1963,13 +1957,13 @@
         <v>59</v>
       </c>
       <c r="K49">
-        <v>0.1920529801324503</v>
+        <v>0.1589403973509934</v>
       </c>
       <c r="L49">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1981,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>610</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1989,25 +1983,25 @@
         <v>60</v>
       </c>
       <c r="K50">
-        <v>0.1882202304737516</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="L50">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>634</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2015,13 +2009,13 @@
         <v>61</v>
       </c>
       <c r="K51">
-        <v>0.138655462184874</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L51">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2033,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>205</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2041,13 +2035,13 @@
         <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1355932203389831</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2059,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>153</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2067,13 +2061,13 @@
         <v>63</v>
       </c>
       <c r="K53">
-        <v>0.1320754716981132</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L53">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2085,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>322</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2093,25 +2087,25 @@
         <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1275862068965517</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="L54">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M54">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>253</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2119,13 +2113,13 @@
         <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1265206812652068</v>
+        <v>0.1204545454545455</v>
       </c>
       <c r="L55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2137,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>359</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2145,25 +2139,25 @@
         <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1162280701754386</v>
+        <v>0.1192411924119241</v>
       </c>
       <c r="L56">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M56">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2171,13 +2165,13 @@
         <v>67</v>
       </c>
       <c r="K57">
-        <v>0.0954653937947494</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L57">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M57">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2189,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>379</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2197,13 +2191,13 @@
         <v>68</v>
       </c>
       <c r="K58">
-        <v>0.08636363636363636</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L58">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2215,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>402</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2223,13 +2217,13 @@
         <v>69</v>
       </c>
       <c r="K59">
-        <v>0.08518518518518518</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2241,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>247</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2249,13 +2243,13 @@
         <v>70</v>
       </c>
       <c r="K60">
-        <v>0.06557377049180328</v>
+        <v>0.06876790830945559</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2267,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>342</v>
+        <v>650</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2275,25 +2269,25 @@
         <v>71</v>
       </c>
       <c r="K61">
-        <v>0.06169296987087518</v>
+        <v>0.06156716417910447</v>
       </c>
       <c r="L61">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M61">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>654</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2301,13 +2295,13 @@
         <v>72</v>
       </c>
       <c r="K62">
-        <v>0.06091370558375635</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2319,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2327,77 +2321,25 @@
         <v>73</v>
       </c>
       <c r="K63">
-        <v>0.05503731343283582</v>
+        <v>0.04079861111111111</v>
       </c>
       <c r="L63">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M63">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K64">
-        <v>0.05350553505535055</v>
-      </c>
-      <c r="L64">
-        <v>29</v>
-      </c>
-      <c r="M64">
-        <v>29</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K65">
-        <v>0.03889369057908384</v>
-      </c>
-      <c r="L65">
-        <v>45</v>
-      </c>
-      <c r="M65">
-        <v>45</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
